--- a/Luban/Config/Datas/EnemyModelBase.xlsx
+++ b/Luban/Config/Datas/EnemyModelBase.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>1100,1000,1100,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
+  </si>
+  <si>
+    <t>0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1238,7 @@
   <dimension ref="A1:X230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1414,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="5:6">

--- a/Luban/Config/Datas/EnemyModelBase.xlsx
+++ b/Luban/Config/Datas/EnemyModelBase.xlsx
@@ -80,7 +80,7 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>(list#sep=|),Tb.TbEnemyModel.SkillValue</t>
+    <t>(list#sep=|),Tb.EnemyModelBase.SkillValue</t>
   </si>
   <si>
     <t>##</t>
@@ -110,7 +110,7 @@
     <t>2000,1000,2000,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
   </si>
   <si>
-    <t>0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1|0,1</t>
+    <t>0,1</t>
   </si>
   <si>
     <t>牛头战士</t>
@@ -131,7 +131,7 @@
     <t>1100,1000,1100,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
   </si>
   <si>
-    <t>0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3|0,3</t>
+    <t>0,3</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:X230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Luban/Config/Datas/EnemyModelBase.xlsx
+++ b/Luban/Config/Datas/EnemyModelBase.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -104,19 +117,19 @@
     <t>史莱姆</t>
   </si>
   <si>
-    <t>Skill_Icon_6</t>
+    <t>1_HeroAnim</t>
   </si>
   <si>
     <t>2000,1000,2000,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
   </si>
   <si>
-    <t>0,1</t>
+    <t>2,1</t>
   </si>
   <si>
     <t>牛头战士</t>
   </si>
   <si>
-    <t>Skill_Icon_7</t>
+    <t>2_HeroAnim</t>
   </si>
   <si>
     <t>1000,1000,1000,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
@@ -125,19 +138,25 @@
     <t>黑魔法师</t>
   </si>
   <si>
-    <t>Skill_Icon_8</t>
+    <t>3_HeroAnim</t>
   </si>
   <si>
     <t>1100,1000,1100,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
   </si>
   <si>
-    <t>0,3</t>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>黑色恶魔</t>
+  </si>
+  <si>
+    <t>4_HeroAnim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1238,7 +1257,7 @@
   <dimension ref="A1:X230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1420,9 +1439,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+    <row r="7" customFormat="1" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" s="11"/>

--- a/Luban/Config/Datas/EnemyModelBase.xlsx
+++ b/Luban/Config/Datas/EnemyModelBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -114,43 +114,64 @@
     <t>技能回合参数</t>
   </si>
   <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>1_HeroAnim</t>
-  </si>
-  <si>
-    <t>2000,1000,2000,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>牛头战士</t>
-  </si>
-  <si>
-    <t>2_HeroAnim</t>
-  </si>
-  <si>
-    <t>1000,1000,1000,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
-  </si>
-  <si>
-    <t>黑魔法师</t>
-  </si>
-  <si>
-    <t>3_HeroAnim</t>
-  </si>
-  <si>
-    <t>1100,1000,1100,1000,100,0,0,100,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>黑色恶魔</t>
-  </si>
-  <si>
-    <t>4_HeroAnim</t>
+    <t>宝箱怪</t>
+  </si>
+  <si>
+    <t>Enemy_MimicChest</t>
+  </si>
+  <si>
+    <t>2600,1000,2600,1000,100,0,0,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>瘟疫毒鼠</t>
+  </si>
+  <si>
+    <t>Enemy_MouseAnim</t>
+  </si>
+  <si>
+    <t>1800,1000,1800,1000,100,0,0,100,100,100,100,100,100,0,0,0,3,100,30,40,1111,10,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>骷髅守卫(近战)</t>
+  </si>
+  <si>
+    <t>Enemy_SkeletonWarrior</t>
+  </si>
+  <si>
+    <t>3100,1000,3100,1000,100,0,0,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>骷髅守卫(远程)</t>
+  </si>
+  <si>
+    <t>Enemy_SkeletonArcher</t>
+  </si>
+  <si>
+    <t>2000,1000,2000,1000,100,0,0,100,100,100,100,100,100,0,0,0,3,100,30,40,1411,10,0</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>魔法女巫</t>
+  </si>
+  <si>
+    <t>Enemy_MagicWith</t>
+  </si>
+  <si>
+    <t>6000,5000,6000,5000,100,0,0,100,100,100,100,100,100,0,150,0,3,100,30,40,1411,10,0</t>
+  </si>
+  <si>
+    <t>2,9|2,8</t>
   </si>
 </sst>
 </file>
@@ -1257,18 +1278,18 @@
   <dimension ref="A1:X230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.175" customWidth="1"/>
-    <col min="2" max="3" width="8.50833333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.675" customWidth="1"/>
-    <col min="6" max="7" width="40.6333333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.5083333333333" customWidth="1"/>
-    <col min="9" max="10" width="40.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.17592592592593" customWidth="1"/>
+    <col min="2" max="3" width="8.50925925925926" customWidth="1"/>
+    <col min="4" max="4" width="10.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="10.6759259259259" customWidth="1"/>
+    <col min="6" max="7" width="40.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="14.5092592592593" customWidth="1"/>
+    <col min="9" max="10" width="40.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:24">
@@ -1418,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:6">
@@ -1427,16 +1448,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="18.5" customHeight="1" spans="1:6">
@@ -1445,21 +1466,35 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="5:6">
       <c r="E9" s="11"/>
